--- a/biology/Botanique/John_Gould_Veitch/John_Gould_Veitch.xlsx
+++ b/biology/Botanique/John_Gould_Veitch/John_Gould_Veitch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John Gould Veitch, né le 17 avril 1839 à Exeter et mort le 13 août 1870 à Coombe Wood, Kingston Hill, Surrey, est un horticulteur et voyageur britannique, qui fut le premier collecteur de plantes anglais de l'époque victorienne à visiter le Japon. Il voyagea aussi aux Philippines, en Australie, aux îles Fidji et dans d'autres îles polynésiennes. John Gould Veitch est l'arrière-petit-fils de l'horticulteur John Veitch, fondateur de l'entreprise Veitch &amp; Sons[1].  
-Veitch rapporta un grand nombre de plantes de serre à la mode à l'époque, comme Acalyphas, Cordylines, Codiaeums (Crotons) et Dracaena, et des Fidji, un palmier d'un nouveau genre nommé d'après lui Veitchia joannis. La famille Veitch s'est vue dédier des centaines de plantes, y compris le genre Veitchia[2]. L'entreprise Veitch introduit 232 orchidées, environ 500 plantes de serre, 118 fougères exotiques, environ 50 conifères, 153 arbres à feuilles caduques, 72 arbustes et arbres à feuilles persistantes, 122 herbacées et 37 plantes à bulbes ornementales de différents endroits du monde[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John Gould Veitch, né le 17 avril 1839 à Exeter et mort le 13 août 1870 à Coombe Wood, Kingston Hill, Surrey, est un horticulteur et voyageur britannique, qui fut le premier collecteur de plantes anglais de l'époque victorienne à visiter le Japon. Il voyagea aussi aux Philippines, en Australie, aux îles Fidji et dans d'autres îles polynésiennes. John Gould Veitch est l'arrière-petit-fils de l'horticulteur John Veitch, fondateur de l'entreprise Veitch &amp; Sons.  
+Veitch rapporta un grand nombre de plantes de serre à la mode à l'époque, comme Acalyphas, Cordylines, Codiaeums (Crotons) et Dracaena, et des Fidji, un palmier d'un nouveau genre nommé d'après lui Veitchia joannis. La famille Veitch s'est vue dédier des centaines de plantes, y compris le genre Veitchia. L'entreprise Veitch introduit 232 orchidées, environ 500 plantes de serre, 118 fougères exotiques, environ 50 conifères, 153 arbres à feuilles caduques, 72 arbustes et arbres à feuilles persistantes, 122 herbacées et 37 plantes à bulbes ornementales de différents endroits du monde.
 Au Japon, il fut en compétition avec le collecteur de plantes Robert Fortune ; parfois leurs plantes étaient transportées par le même bateau en direction de l'Angleterre. Les deux hommes ont revendiqué chacun la découverte d'une espèce de Chamaecyparis pisifera.
 Il a épousé Jane Hodge de retour en Angleterre en 1866 dont il a eu deux fils, James Herbert Veitch  (1868-1907) et le footballeur John Veitch, Jr. (1869-1914). Il meurt de tuberculose à l'âge de 31 ans.
 </t>
@@ -514,9 +526,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1866 : membre de la Linnean Society of London[1]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1866 : membre de la Linnean Society of London</t>
         </is>
       </c>
     </row>
